--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -88,13 +88,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
     <t>Clec14a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H2">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I2">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J2">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.77804666666667</v>
+        <v>7.476616</v>
       </c>
       <c r="N2">
-        <v>32.33414</v>
+        <v>22.429848</v>
       </c>
       <c r="O2">
-        <v>0.9038510333373223</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="P2">
-        <v>0.9038510333373223</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="Q2">
-        <v>370.2207834278334</v>
+        <v>319.4680683668506</v>
       </c>
       <c r="R2">
-        <v>3331.9870508505</v>
+        <v>2875.212615301656</v>
       </c>
       <c r="S2">
-        <v>0.8309870714187114</v>
+        <v>0.8960272135676729</v>
       </c>
       <c r="T2">
-        <v>0.8309870714187115</v>
+        <v>0.896027213567673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H3">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I3">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J3">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.199138</v>
       </c>
       <c r="O3">
-        <v>0.03352005404857064</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="P3">
-        <v>0.03352005404857065</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="Q3">
-        <v>13.72994023648334</v>
+        <v>17.07930881053177</v>
       </c>
       <c r="R3">
-        <v>123.56946212835</v>
+        <v>153.713779294786</v>
       </c>
       <c r="S3">
-        <v>0.03081783448846608</v>
+        <v>0.0479031458805745</v>
       </c>
       <c r="T3">
-        <v>0.03081783448846609</v>
+        <v>0.0479031458805745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H4">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I4">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J4">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.704014</v>
+        <v>0.054086</v>
       </c>
       <c r="N4">
-        <v>2.112042</v>
+        <v>0.162258</v>
       </c>
       <c r="O4">
-        <v>0.05903887792134953</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="P4">
-        <v>0.05903887792134955</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="Q4">
-        <v>24.18254649335001</v>
+        <v>2.311038837047333</v>
       </c>
       <c r="R4">
-        <v>217.6429184401501</v>
+        <v>20.799349533426</v>
       </c>
       <c r="S4">
-        <v>0.05427945806795288</v>
+        <v>0.006481880020723435</v>
       </c>
       <c r="T4">
-        <v>0.0542794580679529</v>
+        <v>0.006481880020723435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H5">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I5">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J5">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02070766666666667</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N5">
-        <v>0.062123</v>
+        <v>0.071357</v>
       </c>
       <c r="O5">
-        <v>0.001736552688397294</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="P5">
-        <v>0.001736552688397294</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="Q5">
-        <v>0.7112985138583335</v>
+        <v>1.016336934358778</v>
       </c>
       <c r="R5">
-        <v>6.401686624725001</v>
+        <v>9.147032409229</v>
       </c>
       <c r="S5">
-        <v>0.001596560472545261</v>
+        <v>0.002850568308735237</v>
       </c>
       <c r="T5">
-        <v>0.001596560472545261</v>
+        <v>0.002850568308735237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.34952500000001</v>
+        <v>1.096366</v>
       </c>
       <c r="H6">
-        <v>103.048575</v>
+        <v>3.289098</v>
       </c>
       <c r="I6">
-        <v>0.9193849879779717</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J6">
-        <v>0.9193849879779719</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.022102</v>
+        <v>7.476616</v>
       </c>
       <c r="N6">
-        <v>0.06630599999999999</v>
+        <v>22.429848</v>
       </c>
       <c r="O6">
-        <v>0.001853482004360236</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="P6">
-        <v>0.001853482004360236</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="Q6">
-        <v>0.75919320155</v>
+        <v>8.197107577456</v>
       </c>
       <c r="R6">
-        <v>6.83273881395</v>
+        <v>73.773968197104</v>
       </c>
       <c r="S6">
-        <v>0.001704063530296123</v>
+        <v>0.0229908156376623</v>
       </c>
       <c r="T6">
-        <v>0.001704063530296123</v>
+        <v>0.0229908156376623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.289098</v>
       </c>
       <c r="I7">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J7">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.77804666666667</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N7">
-        <v>32.33414</v>
+        <v>1.199138</v>
       </c>
       <c r="O7">
-        <v>0.9038510333373223</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="P7">
-        <v>0.9038510333373223</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="Q7">
-        <v>11.81668391174667</v>
+        <v>0.4382313775026667</v>
       </c>
       <c r="R7">
-        <v>106.35015520572</v>
+        <v>3.944082397524</v>
       </c>
       <c r="S7">
-        <v>0.02652339359985463</v>
+        <v>0.001229128288435797</v>
       </c>
       <c r="T7">
-        <v>0.02652339359985464</v>
+        <v>0.001229128288435798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J8">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3997126666666667</v>
+        <v>0.054086</v>
       </c>
       <c r="N8">
-        <v>1.199138</v>
+        <v>0.162258</v>
       </c>
       <c r="O8">
-        <v>0.03352005404857064</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="P8">
-        <v>0.03352005404857065</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="Q8">
-        <v>0.4382313775026667</v>
+        <v>0.059298051476</v>
       </c>
       <c r="R8">
-        <v>3.944082397524</v>
+        <v>0.533682463284</v>
       </c>
       <c r="S8">
-        <v>0.0009836417221717505</v>
+        <v>0.0001663160518847836</v>
       </c>
       <c r="T8">
-        <v>0.0009836417221717509</v>
+        <v>0.0001663160518847836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,54 +980,54 @@
         <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J9">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.704014</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N9">
-        <v>2.112042</v>
+        <v>0.071357</v>
       </c>
       <c r="O9">
-        <v>0.05903887792134953</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="P9">
-        <v>0.05903887792134955</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="Q9">
-        <v>0.771857013124</v>
+        <v>0.02607779622066667</v>
       </c>
       <c r="R9">
-        <v>6.946713118116</v>
+        <v>0.234700165986</v>
       </c>
       <c r="S9">
-        <v>0.001732488362623041</v>
+        <v>7.314162946876271E-05</v>
       </c>
       <c r="T9">
-        <v>0.001732488362623042</v>
+        <v>7.314162946876274E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.096366</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H10">
-        <v>3.289098</v>
+        <v>1.844371</v>
       </c>
       <c r="I10">
-        <v>0.02934487279604177</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J10">
-        <v>0.02934487279604178</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02070766666666667</v>
+        <v>7.476616</v>
       </c>
       <c r="N10">
-        <v>0.062123</v>
+        <v>22.429848</v>
       </c>
       <c r="O10">
-        <v>0.001736552688397294</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="P10">
-        <v>0.001736552688397294</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="Q10">
-        <v>0.02270318167266667</v>
+        <v>4.596551242845333</v>
       </c>
       <c r="R10">
-        <v>0.204328635054</v>
+        <v>41.368961185608</v>
       </c>
       <c r="S10">
-        <v>5.095891774464296E-05</v>
+        <v>0.01289216485141241</v>
       </c>
       <c r="T10">
-        <v>5.095891774464297E-05</v>
+        <v>0.01289216485141241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.096366</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H11">
-        <v>3.289098</v>
+        <v>1.844371</v>
       </c>
       <c r="I11">
-        <v>0.02934487279604177</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J11">
-        <v>0.02934487279604178</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.022102</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N11">
-        <v>0.06630599999999999</v>
+        <v>1.199138</v>
       </c>
       <c r="O11">
-        <v>0.001853482004360236</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="P11">
-        <v>0.001853482004360236</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="Q11">
-        <v>0.02423188133199999</v>
+        <v>0.2457394835775555</v>
       </c>
       <c r="R11">
-        <v>0.218086931988</v>
+        <v>2.211655352198</v>
       </c>
       <c r="S11">
-        <v>5.439019364770367E-05</v>
+        <v>0.0006892371618208458</v>
       </c>
       <c r="T11">
-        <v>5.439019364770369E-05</v>
+        <v>0.0006892371618208458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H12">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I12">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J12">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>10.77804666666667</v>
+        <v>0.054086</v>
       </c>
       <c r="N12">
-        <v>32.33414</v>
+        <v>0.162258</v>
       </c>
       <c r="O12">
-        <v>0.9038510333373223</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="P12">
-        <v>0.9038510333373223</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="Q12">
-        <v>10.14814169264445</v>
+        <v>0.03325154996866667</v>
       </c>
       <c r="R12">
-        <v>91.33327523379999</v>
+        <v>0.299263949718</v>
       </c>
       <c r="S12">
-        <v>0.02277823105292132</v>
+        <v>9.326219617986153E-05</v>
       </c>
       <c r="T12">
-        <v>0.02277823105292132</v>
+        <v>9.326219617986153E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,78 +1222,78 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H13">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I13">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J13">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3997126666666667</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N13">
-        <v>1.199138</v>
+        <v>0.071357</v>
       </c>
       <c r="O13">
-        <v>0.03352005404857064</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="P13">
-        <v>0.03352005404857065</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="Q13">
-        <v>0.3763521260511111</v>
+        <v>0.01462319793855556</v>
       </c>
       <c r="R13">
-        <v>3.387169134460001</v>
+        <v>0.131608781447</v>
       </c>
       <c r="S13">
-        <v>0.0008447493091926354</v>
+        <v>4.101437545641127E-05</v>
       </c>
       <c r="T13">
-        <v>0.0008447493091926357</v>
+        <v>4.101437545641127E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H14">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I14">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J14">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,152 +1302,152 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.704014</v>
+        <v>7.476616</v>
       </c>
       <c r="N14">
-        <v>2.112042</v>
+        <v>22.429848</v>
       </c>
       <c r="O14">
-        <v>0.05903887792134953</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="P14">
-        <v>0.05903887792134955</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="Q14">
-        <v>0.6628690751266667</v>
+        <v>2.69132007844</v>
       </c>
       <c r="R14">
-        <v>5.965821676140001</v>
+        <v>24.22188070596</v>
       </c>
       <c r="S14">
-        <v>0.001487857127774979</v>
+        <v>0.007548472819305878</v>
       </c>
       <c r="T14">
-        <v>0.001487857127774979</v>
+        <v>0.00754847281930588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H15">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I15">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J15">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.02070766666666667</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N15">
-        <v>0.062123</v>
+        <v>1.199138</v>
       </c>
       <c r="O15">
-        <v>0.001736552688397294</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="P15">
-        <v>0.001736552688397294</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="Q15">
-        <v>0.01949744160111111</v>
+        <v>0.1438825700566667</v>
       </c>
       <c r="R15">
-        <v>0.17547697441</v>
+        <v>1.29494313051</v>
       </c>
       <c r="S15">
-        <v>4.376340449137138E-05</v>
+        <v>0.0004035542550086302</v>
       </c>
       <c r="T15">
-        <v>4.376340449137139E-05</v>
+        <v>0.0004035542550086302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H16">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I16">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J16">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.022102</v>
+        <v>0.054086</v>
       </c>
       <c r="N16">
-        <v>0.06630599999999999</v>
+        <v>0.162258</v>
       </c>
       <c r="O16">
-        <v>0.001853482004360236</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="P16">
-        <v>0.001853482004360236</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="Q16">
-        <v>0.02081028544666666</v>
+        <v>0.01946906699</v>
       </c>
       <c r="R16">
-        <v>0.18729256902</v>
+        <v>0.17522160291</v>
       </c>
       <c r="S16">
-        <v>4.671017655626531E-05</v>
+        <v>5.460581376721472E-05</v>
       </c>
       <c r="T16">
-        <v>4.671017655626533E-05</v>
+        <v>5.460581376721472E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,93 +1455,93 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H17">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I17">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J17">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>10.77804666666667</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N17">
-        <v>32.33414</v>
+        <v>0.071357</v>
       </c>
       <c r="O17">
-        <v>0.9038510333373223</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="P17">
-        <v>0.9038510333373223</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="Q17">
-        <v>10.49747614852222</v>
+        <v>0.008562007501666668</v>
       </c>
       <c r="R17">
-        <v>94.47728533669999</v>
+        <v>0.07705806751500001</v>
       </c>
       <c r="S17">
-        <v>0.02356233726583496</v>
+        <v>2.40142677278602E-05</v>
       </c>
       <c r="T17">
-        <v>0.02356233726583497</v>
+        <v>2.40142677278602E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H18">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I18">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J18">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,60 +1550,60 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3997126666666667</v>
+        <v>7.476616</v>
       </c>
       <c r="N18">
-        <v>1.199138</v>
+        <v>22.429848</v>
       </c>
       <c r="O18">
-        <v>0.03352005404857064</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="P18">
-        <v>0.03352005404857065</v>
+        <v>0.9399582216540434</v>
       </c>
       <c r="Q18">
-        <v>0.3893074797655555</v>
+        <v>0.1781104385573333</v>
       </c>
       <c r="R18">
-        <v>3.50376731789</v>
+        <v>1.602993947016</v>
       </c>
       <c r="S18">
-        <v>0.0008738285287401738</v>
+        <v>0.0004995547779898354</v>
       </c>
       <c r="T18">
-        <v>0.0008738285287401741</v>
+        <v>0.0004995547779898354</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H19">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I19">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J19">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,60 +1612,60 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.704014</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N19">
-        <v>2.112042</v>
+        <v>1.199138</v>
       </c>
       <c r="O19">
-        <v>0.05903887792134953</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="P19">
-        <v>0.05903887792134955</v>
+        <v>0.05025177263786123</v>
       </c>
       <c r="Q19">
-        <v>0.6856873422233333</v>
+        <v>0.009522088382888889</v>
       </c>
       <c r="R19">
-        <v>6.17118608001</v>
+        <v>0.08569879544600001</v>
       </c>
       <c r="S19">
-        <v>0.001539074362998633</v>
+        <v>2.670705202144817E-05</v>
       </c>
       <c r="T19">
-        <v>0.001539074362998633</v>
+        <v>2.670705202144817E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H20">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I20">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J20">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,60 +1674,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02070766666666667</v>
+        <v>0.054086</v>
       </c>
       <c r="N20">
-        <v>0.062123</v>
+        <v>0.162258</v>
       </c>
       <c r="O20">
-        <v>0.001736552688397294</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="P20">
-        <v>0.001736552688397294</v>
+        <v>0.006799677872500152</v>
       </c>
       <c r="Q20">
-        <v>0.02016861159055556</v>
+        <v>0.001288454720666667</v>
       </c>
       <c r="R20">
-        <v>0.181517504315</v>
+        <v>0.011596092486</v>
       </c>
       <c r="S20">
-        <v>4.526989361601903E-05</v>
+        <v>3.613789944857171E-06</v>
       </c>
       <c r="T20">
-        <v>4.526989361601904E-05</v>
+        <v>3.613789944857171E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H21">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I21">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J21">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.022102</v>
+        <v>0.02378566666666667</v>
       </c>
       <c r="N21">
-        <v>0.06630599999999999</v>
+        <v>0.071357</v>
       </c>
       <c r="O21">
-        <v>0.001853482004360236</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="P21">
-        <v>0.001853482004360236</v>
+        <v>0.002990327835595122</v>
       </c>
       <c r="Q21">
-        <v>0.02152664810333333</v>
+        <v>0.0005666300798888889</v>
       </c>
       <c r="R21">
-        <v>0.19373983293</v>
+        <v>0.005099670719000001</v>
       </c>
       <c r="S21">
-        <v>4.83181038601445E-05</v>
+        <v>1.589254206850652E-06</v>
       </c>
       <c r="T21">
-        <v>4.831810386014452E-05</v>
+        <v>1.589254206850652E-06</v>
       </c>
     </row>
   </sheetData>
